--- a/PrisonersDilemma/experiment3/contest1/summary1.xlsx
+++ b/PrisonersDilemma/experiment3/contest1/summary1.xlsx
@@ -175,8 +175,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -191,12 +197,18 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -528,7 +540,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/PrisonersDilemma/experiment3/contest1/summary1.xlsx
+++ b/PrisonersDilemma/experiment3/contest1/summary1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Datetime</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Number of strategies</t>
-  </si>
-  <si>
-    <t>Str_numbers</t>
   </si>
   <si>
     <t>Strategy name</t>
@@ -116,6 +113,14 @@
   </si>
   <si>
     <t>GT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Str No.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -175,8 +180,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -197,18 +212,28 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="21">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -537,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -603,25 +628,25 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -629,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>3.78554233284</v>
@@ -644,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -652,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>3.7091634407199998</v>
@@ -675,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>3.7071322423200002</v>
@@ -696,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>3.69574575594</v>
@@ -711,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -719,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>3.6955852823800002</v>
@@ -734,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -742,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>3.6892400463500001</v>
@@ -757,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -765,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>3.63848614083</v>
@@ -786,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>3.6176442140399998</v>
@@ -801,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -809,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>3.4796935556199999</v>
@@ -830,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>3.0460907938199999</v>
@@ -845,6 +870,19 @@
         <v>10</v>
       </c>
       <c r="G17" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <f>AVERAGE(C8:C17)</f>
+        <v>3.6064323804860003</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE(E8:E17)</f>
+        <v>3.4121342626390003</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A7:G17"/>
